--- a/Projects/project 1/Groups.xlsx
+++ b/Projects/project 1/Groups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ariel\Desktop\Graph-Theory\Projects\project 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arielavshalom/Documents/GitHub/Graph-Theory/Projects/project 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20FC2DC1-72AF-40BE-A10C-C755970B8FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB4252C-49EF-D64E-9BBE-F7A3AF7DF0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{DCB23276-EB34-473E-9ABA-BE3FCA3D5116}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26880" windowHeight="15520" xr2:uid="{DCB23276-EB34-473E-9ABA-BE3FCA3D5116}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Group 1</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>Chris Barwicki</t>
-  </si>
-  <si>
-    <t>Mahamud Babu</t>
   </si>
   <si>
     <t>Bryan lysander</t>
@@ -543,22 +540,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221C19FE-9312-44C0-87E6-E64BDCD4B3B9}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,10 +578,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -601,21 +598,21 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -633,24 +630,24 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -659,49 +656,46 @@
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2:H6">
+  <conditionalFormatting sqref="A6:H6 B5:H5 A2:H4">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Projects/project 1/Groups.xlsx
+++ b/Projects/project 1/Groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arielavshalom/Documents/GitHub/Graph-Theory/Projects/project 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB4252C-49EF-D64E-9BBE-F7A3AF7DF0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD008D44-5DBE-1E4C-9710-DCE5258D8A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26880" windowHeight="15520" xr2:uid="{DCB23276-EB34-473E-9ABA-BE3FCA3D5116}"/>
+    <workbookView xWindow="3200" yWindow="0" windowWidth="20480" windowHeight="14080" xr2:uid="{DCB23276-EB34-473E-9ABA-BE3FCA3D5116}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -538,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221C19FE-9312-44C0-87E6-E64BDCD4B3B9}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -555,7 +555,7 @@
     <col min="8" max="8" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,20 +568,8 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -594,20 +582,8 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -620,20 +596,8 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -646,20 +610,8 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>26</v>
       </c>
@@ -669,33 +621,93 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
       </c>
-      <c r="H6" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A6:H6 B5:H5 A2:H4">
+  <conditionalFormatting sqref="A6:D6 B5:D5 A2:D4 A10:D14">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Projects/project 1/Groups.xlsx
+++ b/Projects/project 1/Groups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arielavshalom/Documents/GitHub/Graph-Theory/Projects/project 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD008D44-5DBE-1E4C-9710-DCE5258D8A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45390591-4E6D-2545-8F18-2AF7B6FF3D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3200" yWindow="0" windowWidth="20480" windowHeight="14080" xr2:uid="{DCB23276-EB34-473E-9ABA-BE3FCA3D5116}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>Group 1</t>
   </si>
@@ -161,6 +161,30 @@
   </si>
   <si>
     <t>Jiaying Wu</t>
+  </si>
+  <si>
+    <t>Presentations</t>
+  </si>
+  <si>
+    <t>May 5th</t>
+  </si>
+  <si>
+    <t>2nd slot</t>
+  </si>
+  <si>
+    <t>1st slot</t>
+  </si>
+  <si>
+    <t>May 12th</t>
+  </si>
+  <si>
+    <t>3rd slot</t>
+  </si>
+  <si>
+    <t>May 10th</t>
+  </si>
+  <si>
+    <t>Shortest path algorithms</t>
   </si>
 </sst>
 </file>
@@ -210,14 +234,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -538,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221C19FE-9312-44C0-87E6-E64BDCD4B3B9}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="200" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -555,7 +591,7 @@
     <col min="8" max="8" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,8 +604,11 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -582,8 +621,17 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -597,7 +645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -610,8 +658,20 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>26</v>
       </c>
@@ -621,16 +681,45 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -643,8 +732,17 @@
       <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -658,7 +756,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -672,7 +770,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -686,7 +784,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -700,14 +798,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A6:D6 B5:D5 A2:D4 A10:D14">
+  <conditionalFormatting sqref="A6:D6 B5:D5 A2:D4 A10:D14 F4:H4">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Projects/project 1/Groups.xlsx
+++ b/Projects/project 1/Groups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arielavshalom/Documents/GitHub/Graph-Theory/Projects/project 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45390591-4E6D-2545-8F18-2AF7B6FF3D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B42DB3-82F7-1347-B0E2-8765C4BB935D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3200" yWindow="0" windowWidth="20480" windowHeight="14080" xr2:uid="{DCB23276-EB34-473E-9ABA-BE3FCA3D5116}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>Group 1</t>
   </si>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221C19FE-9312-44C0-87E6-E64BDCD4B3B9}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="200" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -644,6 +644,15 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -805,8 +814,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A6:D6 B5:D5 A2:D4 A10:D14 F4:H4">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A6:D6 B5:D5 A2:D4 A10:D14">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Projects/project 1/Groups.xlsx
+++ b/Projects/project 1/Groups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arielavshalom/Documents/GitHub/Graph-Theory/Projects/project 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B42DB3-82F7-1347-B0E2-8765C4BB935D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CF320F-B64D-964D-A9B2-B5D7A92EA9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3200" yWindow="0" windowWidth="20480" windowHeight="14080" xr2:uid="{DCB23276-EB34-473E-9ABA-BE3FCA3D5116}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>Group 1</t>
   </si>
@@ -243,17 +243,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -576,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221C19FE-9312-44C0-87E6-E64BDCD4B3B9}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -717,6 +707,17 @@
         <v>47</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F8" t="s">
         <v>6</v>
@@ -815,7 +816,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A6:D6 B5:D5 A2:D4 A10:D14">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
